--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -332,8 +332,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -424,6 +424,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -441,7 +501,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +530,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -463,42 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -506,59 +559,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -599,169 +599,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,53 +848,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +885,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -943,126 +919,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,22 +1074,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,7 +1590,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>编号</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>郝旭光</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>维修佬洗板水 350G/桶 x 2</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>焊宝洗板水</t>
+  </si>
+  <si>
+    <t>拆焊台用电位器</t>
   </si>
   <si>
     <t>序号</t>
@@ -331,9 +346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -424,8 +439,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,111 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -551,14 +574,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -593,61 +608,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,115 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,8 +903,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,15 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -943,153 +949,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,7 +1605,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1705,8 +1720,8 @@
         <v>96</v>
       </c>
       <c r="K3" s="50">
-        <f>SUM(F3:F9)</f>
-        <v>96</v>
+        <f>SUM(J3:J9)</f>
+        <v>115.7</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
@@ -1721,14 +1736,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="44">
+        <v>19.7</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="43"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="J4" s="49">
+        <f>SUM(F4)</f>
+        <v>19.7</v>
+      </c>
       <c r="K4" s="51"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -1741,8 +1769,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="43"/>
       <c r="F5" s="44"/>
       <c r="G5" s="43"/>
@@ -1761,8 +1793,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="43"/>
       <c r="F6" s="44"/>
       <c r="G6" s="43"/>
@@ -1858,6 +1894,9 @@
     <hyperlink ref="E3" r:id="rId2" display="订单"/>
     <hyperlink ref="H3" r:id="rId3" display="发票"/>
     <hyperlink ref="D3" r:id="rId4" display="立创梁山派-GD32F470ZGT6开发板-六件套"/>
+    <hyperlink ref="D4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
+    <hyperlink ref="E4" r:id="rId6" display="订单"/>
+    <hyperlink ref="G4" r:id="rId7" display="付款记录"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1891,31 +1930,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
@@ -1923,16 +1962,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -1941,10 +1980,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
@@ -1952,10 +1991,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -1971,10 +2010,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -1990,16 +2029,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2008,10 +2047,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -2019,10 +2058,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2031,10 +2070,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
@@ -2042,10 +2081,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2054,10 +2093,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
@@ -2065,16 +2104,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2090,10 +2129,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2102,10 +2141,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
@@ -2113,10 +2152,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2125,10 +2164,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
@@ -2136,16 +2175,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2154,10 +2193,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:9">
@@ -2165,10 +2204,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2184,10 +2223,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2203,16 +2242,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2221,10 +2260,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -2232,10 +2271,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2251,10 +2290,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2270,16 +2309,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2288,10 +2327,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -2299,10 +2338,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2311,7 +2350,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2320,10 +2359,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2339,16 +2378,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2357,10 +2396,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -2368,10 +2407,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2387,10 +2426,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2406,10 +2445,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2425,16 +2464,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2444,7 +2483,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
@@ -2452,10 +2491,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2464,10 +2503,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -2475,10 +2514,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2487,10 +2526,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -2498,10 +2537,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2510,10 +2549,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:9">
@@ -2521,16 +2560,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2539,10 +2578,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -2550,10 +2589,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2569,13 +2608,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2588,10 +2627,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2607,10 +2646,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>拆焊台用电位器</t>
+  </si>
+  <si>
+    <t>差价</t>
   </si>
   <si>
     <t>序号</t>
@@ -346,9 +349,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -432,13 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -448,6 +444,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -456,9 +474,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,6 +496,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -478,6 +542,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -486,16 +557,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,72 +571,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -608,19 +611,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,55 +707,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,97 +761,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,26 +864,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,19 +906,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,17 +927,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,8 +956,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,152 +966,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,6 +1233,15 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,10 +1254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1265,6 +1277,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1605,7 +1623,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1644,7 +1662,7 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
@@ -1656,10 +1674,10 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
@@ -1679,13 +1697,13 @@
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
-      <c r="F2" s="42"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="47"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="50"/>
       <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:15">
@@ -1702,26 +1720,26 @@
       <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="47">
         <v>96</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52">
         <f>SUM(F3)</f>
         <v>96</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="53">
         <f>SUM(J3:J9)</f>
-        <v>115.7</v>
+        <v>151.4</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
@@ -1742,22 +1760,22 @@
       <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="47">
         <v>19.7</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49">
+      <c r="H4" s="46"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52">
         <f>SUM(F4)</f>
         <v>19.7</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
@@ -1775,13 +1793,13 @@
       <c r="D5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="51"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
@@ -1793,19 +1811,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51"/>
+      <c r="E6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="47">
+        <v>34</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="56">
+        <f>SUM(F6:F7)</f>
+        <v>35.7</v>
+      </c>
+      <c r="K6" s="54"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
@@ -1817,15 +1844,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -1839,13 +1872,13 @@
       <c r="B8" s="15"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -1859,21 +1892,25 @@
       <c r="B9" s="15"/>
       <c r="C9" s="39"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="51"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="K3:K9"/>
     <mergeCell ref="M3:M9"/>
     <mergeCell ref="N3:N9"/>
@@ -1897,6 +1934,11 @@
     <hyperlink ref="D4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
     <hyperlink ref="E4" r:id="rId6" display="订单"/>
     <hyperlink ref="G4" r:id="rId7" display="付款记录"/>
+    <hyperlink ref="D6" r:id="rId8" display="拆焊台用电位器"/>
+    <hyperlink ref="E6" r:id="rId9" display="订单"/>
+    <hyperlink ref="E7" r:id="rId10" display="差价"/>
+    <hyperlink ref="G6" r:id="rId11" display="付款记录"/>
+    <hyperlink ref="G7" r:id="rId12" display="差价"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1930,31 +1972,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
@@ -1962,16 +2004,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -1980,10 +2022,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
@@ -1991,10 +2033,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2010,10 +2052,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2029,16 +2071,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2047,10 +2089,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -2058,10 +2100,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2070,10 +2112,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
@@ -2081,10 +2123,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2093,10 +2135,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
@@ -2104,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2129,10 +2171,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2141,10 +2183,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
@@ -2152,10 +2194,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2164,10 +2206,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
@@ -2175,16 +2217,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2193,10 +2235,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:9">
@@ -2204,10 +2246,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2223,10 +2265,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2242,16 +2284,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2260,10 +2302,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -2271,10 +2313,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2290,10 +2332,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2309,16 +2351,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2327,10 +2369,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -2338,10 +2380,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2350,7 +2392,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2359,10 +2401,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2378,16 +2420,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2396,10 +2438,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -2407,10 +2449,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2426,10 +2468,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2445,10 +2487,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2464,16 +2506,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2483,7 +2525,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
@@ -2491,10 +2533,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2503,10 +2545,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -2514,10 +2556,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2526,10 +2568,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -2537,10 +2579,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2549,10 +2591,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:9">
@@ -2560,16 +2602,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2578,10 +2620,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -2589,10 +2631,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2608,13 +2650,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2627,10 +2669,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2646,10 +2688,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>编号</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>焊宝洗板水</t>
   </si>
   <si>
     <t>拆焊台用电位器</t>
@@ -349,11 +346,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -451,15 +448,105 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,30 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,73 +574,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -611,19 +608,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,79 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,67 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,26 +861,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,15 +896,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,21 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -961,147 +934,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,12 +1233,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,6 +1254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,9 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1618,15 +1618,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.925" style="1" customWidth="1"/>
@@ -1662,7 +1662,7 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
@@ -1674,10 +1674,10 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
@@ -1697,18 +1697,18 @@
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
-      <c r="F2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1720,25 +1720,25 @@
       <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="48">
         <v>96</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <f>SUM(F3)</f>
         <v>96</v>
       </c>
-      <c r="K3" s="53">
-        <f>SUM(J3:J9)</f>
+      <c r="K3" s="55">
+        <f>SUM(J3:J8)</f>
         <v>151.4</v>
       </c>
       <c r="L3" s="39"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="15"/>
@@ -1760,22 +1760,22 @@
       <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="48">
         <v>19.7</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52">
+      <c r="H4" s="47"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54">
         <f>SUM(F4)</f>
         <v>19.7</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
@@ -1783,23 +1783,34 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54"/>
+      <c r="E5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="48">
+        <v>34</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="57">
+        <f>SUM(F5:F6)</f>
+        <v>35.7</v>
+      </c>
+      <c r="K5" s="56"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
@@ -1807,32 +1818,25 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="47">
-        <v>34</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="56">
-        <f>SUM(F6:F7)</f>
-        <v>35.7</v>
-      </c>
-      <c r="K6" s="54"/>
+      <c r="F6" s="48">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
@@ -1840,25 +1844,19 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="54"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -1866,62 +1864,42 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="54"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="M3:M9"/>
-    <mergeCell ref="N3:N9"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="O3:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:N3 L4:N4 B4:I4 A4:A9">
+  <conditionalFormatting sqref="A3:N3 L4:N4 A4:I4 A5:A8">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1934,11 +1912,12 @@
     <hyperlink ref="D4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
     <hyperlink ref="E4" r:id="rId6" display="订单"/>
     <hyperlink ref="G4" r:id="rId7" display="付款记录"/>
-    <hyperlink ref="D6" r:id="rId8" display="拆焊台用电位器"/>
-    <hyperlink ref="E6" r:id="rId9" display="订单"/>
-    <hyperlink ref="E7" r:id="rId10" display="差价"/>
-    <hyperlink ref="G6" r:id="rId11" display="付款记录"/>
-    <hyperlink ref="G7" r:id="rId12" display="差价"/>
+    <hyperlink ref="D5" r:id="rId8" display="拆焊台用电位器"/>
+    <hyperlink ref="E5" r:id="rId9" display="订单"/>
+    <hyperlink ref="E6" r:id="rId10" display="差价"/>
+    <hyperlink ref="G5" r:id="rId11" display="付款记录"/>
+    <hyperlink ref="G6" r:id="rId12" display="差价"/>
+    <hyperlink ref="H5:H6" r:id="rId13" display="发票"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1972,31 +1951,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
@@ -2004,16 +1983,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2022,10 +2001,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
@@ -2033,10 +2012,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2052,10 +2031,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2071,16 +2050,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2089,10 +2068,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -2100,10 +2079,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2112,10 +2091,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
@@ -2123,10 +2102,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2135,10 +2114,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
@@ -2146,16 +2125,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2171,10 +2150,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2183,10 +2162,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
@@ -2194,10 +2173,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2206,10 +2185,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
@@ -2217,16 +2196,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2235,10 +2214,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:9">
@@ -2246,10 +2225,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2265,10 +2244,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2284,16 +2263,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2302,10 +2281,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -2313,10 +2292,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2332,10 +2311,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2351,16 +2330,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2369,10 +2348,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -2380,10 +2359,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2392,7 +2371,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2401,10 +2380,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2420,16 +2399,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2438,10 +2417,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -2449,10 +2428,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2468,10 +2447,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2487,10 +2466,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2506,16 +2485,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2525,7 +2504,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
@@ -2533,10 +2512,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2545,10 +2524,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -2556,10 +2535,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2568,10 +2547,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -2579,10 +2558,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2591,10 +2570,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:9">
@@ -2602,16 +2581,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2620,10 +2599,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -2631,10 +2610,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2650,13 +2629,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2669,10 +2648,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2688,10 +2667,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570"/>
+    <workbookView windowWidth="21540" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>编号</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>差价</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>拆焊台用 EC11</t>
   </si>
   <si>
     <t>序号</t>
@@ -347,10 +353,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -447,6 +453,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -455,21 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -478,6 +484,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -487,6 +537,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -494,16 +551,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,63 +575,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -608,25 +614,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,25 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,103 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,21 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -922,15 +913,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +935,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -963,103 +969,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1068,37 +1074,37 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,9 +1258,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1623,7 +1626,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1674,7 +1677,7 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="45" t="s">
@@ -1701,14 +1704,14 @@
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="51"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="46"/>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
       <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1732,12 +1735,12 @@
       <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53">
         <f>SUM(F3)</f>
         <v>96</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="54">
         <f>SUM(J3:J8)</f>
         <v>151.4</v>
       </c>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="15"/>
@@ -1769,13 +1772,15 @@
       <c r="G4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54">
+      <c r="H4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53">
         <f>SUM(F4)</f>
         <v>19.7</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
@@ -1783,7 +1788,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="15"/>
@@ -1805,12 +1810,12 @@
       <c r="H5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="57">
+      <c r="I5" s="52"/>
+      <c r="J5" s="56">
         <f>SUM(F5:F6)</f>
         <v>35.7</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
@@ -1818,7 +1823,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="15"/>
@@ -1833,10 +1838,10 @@
       <c r="G6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
@@ -1844,19 +1849,29 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="56"/>
+      <c r="G7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -1864,7 +1879,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="15"/>
@@ -1874,9 +1889,9 @@
       <c r="F8" s="48"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -1918,6 +1933,7 @@
     <hyperlink ref="G5" r:id="rId11" display="付款记录"/>
     <hyperlink ref="G6" r:id="rId12" display="差价"/>
     <hyperlink ref="H5:H6" r:id="rId13" display="发票"/>
+    <hyperlink ref="H4" r:id="rId14" display="发票"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1951,31 +1967,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
@@ -1983,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2001,10 +2017,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
@@ -2012,10 +2028,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2031,10 +2047,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2050,16 +2066,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2068,10 +2084,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
@@ -2079,10 +2095,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2091,10 +2107,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
@@ -2102,10 +2118,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2114,10 +2130,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
@@ -2125,16 +2141,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2150,10 +2166,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2162,10 +2178,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:9">
@@ -2173,10 +2189,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2185,10 +2201,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:9">
@@ -2196,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2214,10 +2230,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:9">
@@ -2225,10 +2241,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2244,10 +2260,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2263,16 +2279,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2281,10 +2297,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
@@ -2292,10 +2308,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2311,10 +2327,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2330,16 +2346,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2348,10 +2364,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
@@ -2359,10 +2375,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2371,7 +2387,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2380,10 +2396,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2399,16 +2415,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2417,10 +2433,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:9">
@@ -2428,10 +2444,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2447,10 +2463,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2466,10 +2482,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2485,16 +2501,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2504,7 +2520,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
@@ -2512,10 +2528,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2524,10 +2540,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
@@ -2535,10 +2551,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2547,10 +2563,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:9">
@@ -2558,10 +2574,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2570,10 +2586,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:9">
@@ -2581,16 +2597,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2599,10 +2615,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:9">
@@ -2610,10 +2626,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2629,13 +2645,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2648,10 +2664,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2667,10 +2683,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8745"/>
+    <workbookView windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K3" s="54">
         <f>SUM(J3:J8)</f>
-        <v>151.4</v>
+        <v>154.05</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
@@ -1862,7 +1862,9 @@
       <c r="E7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="48">
+        <v>2.65</v>
+      </c>
       <c r="G7" s="47" t="s">
         <v>18</v>
       </c>
@@ -1870,7 +1872,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53">
+        <f>SUM(F7)</f>
+        <v>2.65</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
@@ -1934,6 +1939,9 @@
     <hyperlink ref="G6" r:id="rId12" display="差价"/>
     <hyperlink ref="H5:H6" r:id="rId13" display="发票"/>
     <hyperlink ref="H4" r:id="rId14" display="发票"/>
+    <hyperlink ref="D7" r:id="rId15" display="拆焊台用 EC11"/>
+    <hyperlink ref="E7" r:id="rId16" display="订单"/>
+    <hyperlink ref="G7" r:id="rId17" display="付款记录"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>编号</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>拆焊台用 EC11</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>模型组车模套件</t>
+  </si>
+  <si>
+    <t>3347</t>
   </si>
   <si>
     <t>序号</t>
@@ -353,16 +362,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -370,13 +379,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,14 +393,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -411,7 +420,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -425,7 +434,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,7 +442,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -441,21 +450,74 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -463,67 +525,52 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -531,55 +578,17 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -614,13 +623,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,163 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,6 +879,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -877,16 +895,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,17 +920,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,24 +941,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,148 +978,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,19 +1242,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,7 +1263,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1289,55 +1298,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1626,10 +1635,10 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.925" style="1" customWidth="1"/>
@@ -1888,11 +1897,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="47"/>
+      <c r="G8" s="47" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="47"/>
       <c r="I8" s="52"/>
       <c r="J8" s="53"/>
@@ -1942,6 +1959,9 @@
     <hyperlink ref="D7" r:id="rId15" display="拆焊台用 EC11"/>
     <hyperlink ref="E7" r:id="rId16" display="订单"/>
     <hyperlink ref="G7" r:id="rId17" display="付款记录"/>
+    <hyperlink ref="D8" r:id="rId18" display="模型组车模套件"/>
+    <hyperlink ref="E8" r:id="rId19" display="订单"/>
+    <hyperlink ref="G8" r:id="rId20" display="3347"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1962,7 +1982,7 @@
       <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
@@ -1975,48 +1995,48 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2025,21 +2045,21 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2050,15 +2070,15 @@
       <c r="H3" s="15"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" ht="17.25" spans="1:9">
+    <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2069,21 +2089,21 @@
       <c r="H4" s="15"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" ht="17.25" spans="1:9">
+    <row r="5" ht="15" spans="1:9">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2092,21 +2112,21 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2115,21 +2135,21 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2138,27 +2158,27 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:9">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2169,15 +2189,15 @@
       <c r="H8" s="15"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" ht="17.25" spans="1:9">
+    <row r="9" ht="15" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2186,21 +2206,21 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2209,27 +2229,27 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:9">
       <c r="A11" s="3">
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2238,21 +2258,21 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2263,15 +2283,15 @@
       <c r="H12" s="15"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" ht="17.25" spans="1:9">
+    <row r="13" ht="15" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2282,21 +2302,21 @@
       <c r="H13" s="15"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" ht="17.25" spans="1:9">
+    <row r="14" ht="15" spans="1:9">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2305,21 +2325,21 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2330,15 +2350,15 @@
       <c r="H15" s="15"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" ht="17.25" spans="1:9">
+    <row r="16" ht="15" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2349,21 +2369,21 @@
       <c r="H16" s="15"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" ht="17.25" spans="1:9">
+    <row r="17" ht="15" spans="1:9">
       <c r="A17" s="3">
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2372,21 +2392,21 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2395,19 +2415,19 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" ht="17.25" spans="1:9">
+    <row r="19" ht="15" spans="1:9">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2418,21 +2438,21 @@
       <c r="H19" s="15"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" ht="17.25" spans="1:9">
+    <row r="20" ht="15" spans="1:9">
       <c r="A20" s="3">
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2441,21 +2461,21 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2466,15 +2486,15 @@
       <c r="H21" s="15"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" ht="17.25" spans="1:9">
+    <row r="22" ht="15" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2485,15 +2505,15 @@
       <c r="H22" s="15"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" ht="17.25" spans="1:9">
+    <row r="23" ht="15" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2504,21 +2524,21 @@
       <c r="H23" s="15"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" ht="17.25" spans="1:9">
+    <row r="24" ht="15" spans="1:9">
       <c r="A24" s="3">
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2528,18 +2548,18 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2548,21 +2568,21 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2571,21 +2591,21 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2594,27 +2614,27 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3">
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2623,21 +2643,21 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2648,18 +2668,18 @@
       <c r="H29" s="15"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" ht="17.25" spans="1:9">
+    <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="F30" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2667,15 +2687,15 @@
       <c r="H30" s="15"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" ht="17.25" spans="1:9">
+    <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2686,15 +2706,15 @@
       <c r="H31" s="15"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" ht="17.25" spans="1:9">
+    <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,102 +18,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>日期(小注)</t>
+  </si>
+  <si>
+    <t>简述</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>支付记录</t>
+  </si>
+  <si>
+    <t>发票</t>
+  </si>
+  <si>
+    <t>验真</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>出入库</t>
+  </si>
+  <si>
+    <t>收款人</t>
+  </si>
+  <si>
+    <t>支出单号</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>立创梁山派-GD32F470ZGT6开发板-六件套</t>
+  </si>
+  <si>
+    <t>郝旭光</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>维修佬洗板水 350G/桶 x 2</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>拆焊台用电位器</t>
+  </si>
+  <si>
+    <t>差价</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>拆焊台用 EC11</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>模型组车模套件</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>队名</t>
+  </si>
+  <si>
     <t>组别</t>
-  </si>
-  <si>
-    <t>日期(小注)</t>
-  </si>
-  <si>
-    <t>简述</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>支付记录</t>
-  </si>
-  <si>
-    <t>发票</t>
-  </si>
-  <si>
-    <t>验真</t>
-  </si>
-  <si>
-    <t>小计</t>
-  </si>
-  <si>
-    <t>总额</t>
-  </si>
-  <si>
-    <t>出入库</t>
-  </si>
-  <si>
-    <t>收款人</t>
-  </si>
-  <si>
-    <t>支出单号</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>实验室</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>立创梁山派-GD32F470ZGT6开发板-六件套</t>
-  </si>
-  <si>
-    <t>付款记录</t>
-  </si>
-  <si>
-    <t>郝旭光</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>维修佬洗板水 350G/桶 x 2</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>拆焊台用电位器</t>
-  </si>
-  <si>
-    <t>差价</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>拆焊台用 EC11</t>
-  </si>
-  <si>
-    <t>2024-06-10</t>
-  </si>
-  <si>
-    <t>模型组车模套件</t>
-  </si>
-  <si>
-    <t>3347</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>队名</t>
   </si>
   <si>
     <t>队员</t>
@@ -361,11 +349,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -483,8 +471,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +509,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -514,22 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -538,43 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -589,6 +570,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -635,43 +623,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,103 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +877,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -909,21 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -935,17 +943,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,156 +961,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,12 +1215,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,6 +1232,9 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,43 +1248,40 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,35 +1618,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="10.925" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6416666666667" style="33" customWidth="1"/>
-    <col min="4" max="4" width="34.5666666666667" style="34" customWidth="1"/>
-    <col min="5" max="5" width="6.71666666666667" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="10.3083333333333" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.76666666666667" style="33" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="36" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="8.98333333333333" style="33" customWidth="1"/>
-    <col min="13" max="13" width="7" style="34" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="33" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="34" customWidth="1"/>
-    <col min="16" max="30" width="9" style="34"/>
+    <col min="2" max="2" width="10.6416666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="34.5666666666667" style="34" customWidth="1"/>
+    <col min="4" max="4" width="6.71666666666667" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.3083333333333" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.76666666666667" style="33" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="8.98333333333333" style="33" customWidth="1"/>
+    <col min="11" max="11" width="7" style="34" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="33" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="34" customWidth="1"/>
+    <col min="14" max="28" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1674,22 +1660,22 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
@@ -1698,270 +1684,327 @@
       <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="3:14">
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="2:12">
+      <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="51"/>
-      <c r="N2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="H2" s="47"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="15">
         <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>4</v>
+      <c r="B3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="48">
+        <v>96</v>
       </c>
       <c r="F3" s="48">
         <v>96</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53">
-        <f>SUM(F3)</f>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50">
+        <f>IF(E3&lt;F3,E3,F3)</f>
         <v>96</v>
       </c>
-      <c r="K3" s="54">
-        <f>SUM(J3:J8)</f>
+      <c r="I3" s="56">
+        <f>SUM(H3:H8)</f>
         <v>154.05</v>
       </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>4</v>
+      <c r="B4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="48">
+        <v>19.7</v>
       </c>
       <c r="F4" s="48">
         <v>19.7</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53">
-        <f>SUM(F4)</f>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50">
+        <f>IF(E4&lt;F4,E4,F4)</f>
         <v>19.7</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>4</v>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="48">
+        <v>34</v>
       </c>
       <c r="F5" s="48">
-        <v>34</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56">
-        <f>SUM(F5:F6)</f>
         <v>35.7</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51">
+        <f>IF(SUM(E5:E6)&lt;F5,SUM(E5:E6),F5)</f>
+        <v>35.7</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="48">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="48">
         <v>1.7</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="55"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>4</v>
+      <c r="B7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="48">
+        <v>2.65</v>
       </c>
       <c r="F7" s="48">
         <v>2.65</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53">
-        <f>SUM(F7)</f>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50">
+        <f>IF(E7&lt;F7,E7,F7)</f>
         <v>2.65</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="55"/>
+      <c r="B8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="48">
+        <v>3347</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50">
+        <f>IF(E8&lt;F8,E8,F8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B3:B8"/>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I3:I8"/>
     <mergeCell ref="K3:K8"/>
+    <mergeCell ref="L3:L8"/>
     <mergeCell ref="M3:M8"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="O3:O8"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(#REF!),1+1)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:N3 L4:N4 A4:I4 A5:A8">
+  <conditionalFormatting sqref="A3:A8 J4:L4 E4:H4 E3:L3 B3:D4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="付款记录"/>
-    <hyperlink ref="E3" r:id="rId2" display="订单"/>
-    <hyperlink ref="H3" r:id="rId3" display="发票"/>
-    <hyperlink ref="D3" r:id="rId4" display="立创梁山派-GD32F470ZGT6开发板-六件套"/>
-    <hyperlink ref="D4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
-    <hyperlink ref="E4" r:id="rId6" display="订单"/>
-    <hyperlink ref="G4" r:id="rId7" display="付款记录"/>
-    <hyperlink ref="D5" r:id="rId8" display="拆焊台用电位器"/>
-    <hyperlink ref="E5" r:id="rId9" display="订单"/>
-    <hyperlink ref="E6" r:id="rId10" display="差价"/>
-    <hyperlink ref="G5" r:id="rId11" display="付款记录"/>
-    <hyperlink ref="G6" r:id="rId12" display="差价"/>
-    <hyperlink ref="H5:H6" r:id="rId13" display="发票"/>
-    <hyperlink ref="H4" r:id="rId14" display="发票"/>
-    <hyperlink ref="D7" r:id="rId15" display="拆焊台用 EC11"/>
-    <hyperlink ref="E7" r:id="rId16" display="订单"/>
-    <hyperlink ref="G7" r:id="rId17" display="付款记录"/>
-    <hyperlink ref="D8" r:id="rId18" display="模型组车模套件"/>
-    <hyperlink ref="E8" r:id="rId19" display="订单"/>
-    <hyperlink ref="G8" r:id="rId20" display="3347"/>
+    <hyperlink ref="E3" r:id="rId1" display="96"/>
+    <hyperlink ref="D3" r:id="rId2" display="订单"/>
+    <hyperlink ref="F3" r:id="rId3" display="96"/>
+    <hyperlink ref="C3" r:id="rId4" display="立创梁山派-GD32F470ZGT6开发板-六件套"/>
+    <hyperlink ref="C4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
+    <hyperlink ref="D4" r:id="rId6" display="订单"/>
+    <hyperlink ref="E4" r:id="rId7" display="19.7"/>
+    <hyperlink ref="C5" r:id="rId8" display="拆焊台用电位器"/>
+    <hyperlink ref="D5" r:id="rId9" display="订单"/>
+    <hyperlink ref="D6" r:id="rId10" display="差价"/>
+    <hyperlink ref="E5" r:id="rId11" display="34"/>
+    <hyperlink ref="E6" r:id="rId12" display="1.7"/>
+    <hyperlink ref="F5:F6" r:id="rId13" display="35.7"/>
+    <hyperlink ref="F4" r:id="rId14" display="19.7"/>
+    <hyperlink ref="C7" r:id="rId15" display="拆焊台用 EC11"/>
+    <hyperlink ref="D7" r:id="rId16" display="订单"/>
+    <hyperlink ref="E7" r:id="rId17" display="2.65"/>
+    <hyperlink ref="C8" r:id="rId18" display="模型组车模套件"/>
+    <hyperlink ref="D8" r:id="rId19" display="订单"/>
+    <hyperlink ref="E8" r:id="rId20" display="3347"/>
+    <hyperlink ref="F7" r:id="rId21" display="2.65"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1995,31 +2038,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -2027,16 +2070,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2045,10 +2088,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -2056,10 +2099,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2075,10 +2118,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2094,16 +2137,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2112,10 +2155,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2123,10 +2166,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2135,10 +2178,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2146,10 +2189,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2158,10 +2201,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2169,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2194,10 +2237,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2206,10 +2249,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2217,10 +2260,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2229,10 +2272,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2240,16 +2283,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2258,10 +2301,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2269,10 +2312,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2288,10 +2331,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2307,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2325,10 +2368,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2336,10 +2379,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2355,10 +2398,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2374,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2392,10 +2435,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2403,10 +2446,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2415,7 +2458,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2424,10 +2467,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2443,16 +2486,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2461,10 +2504,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2472,10 +2515,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2491,10 +2534,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2510,10 +2553,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2529,16 +2572,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2548,7 +2591,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2556,10 +2599,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2568,10 +2611,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2579,10 +2622,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2591,10 +2634,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2602,10 +2645,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2614,10 +2657,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2625,16 +2668,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2643,10 +2686,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2654,10 +2697,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2673,13 +2716,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2692,10 +2735,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2711,10 +2754,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>编号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>拆焊台用 EC11</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>正点原子:2.8寸电阻屏</t>
   </si>
   <si>
     <t>2024-06-10</t>
@@ -1111,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,6 +1273,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,12 +1627,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1669,7 +1678,7 @@
       <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="37" t="s">
@@ -1693,13 +1702,13 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="47"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1722,9 +1731,9 @@
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>96</v>
       </c>
-      <c r="I3" s="56">
-        <f>SUM(H3:H8)</f>
-        <v>154.05</v>
+      <c r="I3" s="57">
+        <f>SUM(H3:H9)</f>
+        <v>259.05</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="39" t="s">
@@ -1735,7 +1744,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
@@ -1758,7 +1767,7 @@
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>19.7</v>
       </c>
-      <c r="I4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
@@ -1766,7 +1775,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -1789,7 +1798,7 @@
         <f>IF(SUM(E5:E6)&lt;F5,SUM(E5:E6),F5)</f>
         <v>35.7</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
@@ -1797,7 +1806,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="44"/>
@@ -1811,7 +1820,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
       <c r="H6" s="52"/>
-      <c r="I6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -1842,17 +1851,14 @@
         <f>IF(E7&lt;F7,E7,F7)</f>
         <v>2.65</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="A8" s="15"/>
       <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
@@ -1863,25 +1869,52 @@
         <v>3</v>
       </c>
       <c r="E8" s="48">
-        <v>3347</v>
-      </c>
-      <c r="F8" s="48">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="F8" s="53">
+        <v>105</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="50">
         <f>IF(E8&lt;F8,E8,F8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="57"/>
+        <v>105</v>
+      </c>
+      <c r="I8" s="58"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="15">
+        <f>ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="48">
+        <v>3347</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50">
+        <f>IF(E9&lt;F9,E9,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="5:6">
       <c r="E10" s="36"/>
@@ -1966,6 +1999,10 @@
     <row r="30" spans="5:6">
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1973,12 +2010,12 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="M3:M9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A8 J4:L4 E4:H4 E3:L3 B3:D4">
+  <conditionalFormatting sqref="A3:A9 B3:D4 J4:L4 E4:H4 E3:L3">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -2001,10 +2038,14 @@
     <hyperlink ref="C7" r:id="rId15" display="拆焊台用 EC11"/>
     <hyperlink ref="D7" r:id="rId16" display="订单"/>
     <hyperlink ref="E7" r:id="rId17" display="2.65"/>
-    <hyperlink ref="C8" r:id="rId18" display="模型组车模套件"/>
-    <hyperlink ref="D8" r:id="rId19" display="订单"/>
-    <hyperlink ref="E8" r:id="rId20" display="3347"/>
+    <hyperlink ref="C9" r:id="rId18" display="模型组车模套件"/>
+    <hyperlink ref="D9" r:id="rId19" display="订单"/>
+    <hyperlink ref="E9" r:id="rId20" display="3347"/>
     <hyperlink ref="F7" r:id="rId21" display="2.65"/>
+    <hyperlink ref="C8" r:id="rId22" display="正点原子:2.8寸电阻屏"/>
+    <hyperlink ref="D8" r:id="rId23" display="订单"/>
+    <hyperlink ref="E8" r:id="rId24" display="105"/>
+    <hyperlink ref="F8" r:id="rId25" display="105"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2038,31 +2079,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -2070,16 +2111,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2088,10 +2129,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -2099,10 +2140,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2118,10 +2159,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2137,16 +2178,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2155,10 +2196,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2166,10 +2207,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2178,10 +2219,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2189,10 +2230,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2201,10 +2242,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2212,16 +2253,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2237,10 +2278,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2249,10 +2290,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2260,10 +2301,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2272,10 +2313,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2283,16 +2324,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2301,10 +2342,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2312,10 +2353,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2331,10 +2372,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2350,16 +2391,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2368,10 +2409,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2379,10 +2420,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2398,10 +2439,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2417,16 +2458,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2435,10 +2476,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2446,10 +2487,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2458,7 +2499,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2467,10 +2508,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2486,16 +2527,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2504,10 +2545,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2515,10 +2556,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2534,10 +2575,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2553,10 +2594,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2572,16 +2613,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2591,7 +2632,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2599,10 +2640,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2611,10 +2652,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2622,10 +2663,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2634,10 +2675,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2645,10 +2686,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2657,10 +2698,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2668,16 +2709,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2686,10 +2727,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2697,10 +2738,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2716,13 +2757,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2735,10 +2776,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2754,10 +2795,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -62,7 +62,7 @@
     <t>2024-03-09</t>
   </si>
   <si>
-    <t>立创梁山派-GD32F470ZGT6开发板-六件套</t>
+    <t>立创: 梁山派-GD32F470ZGT6开发板-六件套</t>
   </si>
   <si>
     <t>郝旭光</t>
@@ -71,13 +71,13 @@
     <t>2024-03-14</t>
   </si>
   <si>
-    <t>维修佬洗板水 350G/桶 x 2</t>
+    <t>明翔科技: 维修佬洗板水 350G/桶 x 2</t>
   </si>
   <si>
     <t>2024-03-16</t>
   </si>
   <si>
-    <t>拆焊台用电位器</t>
+    <t>嘉灿电子:拆焊台用电位器</t>
   </si>
   <si>
     <t>差价</t>
@@ -86,7 +86,7 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>拆焊台用 EC11</t>
+    <t>RISYM: 拆焊台用 EC11</t>
   </si>
   <si>
     <t>2024-05-14</t>
@@ -98,7 +98,7 @@
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>模型组车模套件</t>
+    <t>赛曙科技: 模型组车模套件</t>
   </si>
   <si>
     <t>序号</t>
@@ -1632,7 +1632,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1858,7 +1858,10 @@
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <f>ROW()-2</f>
+        <v>6</v>
+      </c>
       <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
@@ -2024,21 +2027,21 @@
     <hyperlink ref="E3" r:id="rId1" display="96"/>
     <hyperlink ref="D3" r:id="rId2" display="订单"/>
     <hyperlink ref="F3" r:id="rId3" display="96"/>
-    <hyperlink ref="C3" r:id="rId4" display="立创梁山派-GD32F470ZGT6开发板-六件套"/>
-    <hyperlink ref="C4" r:id="rId5" display="维修佬洗板水 350G/桶 x 2"/>
+    <hyperlink ref="C3" r:id="rId4" display="立创: 梁山派-GD32F470ZGT6开发板-六件套"/>
+    <hyperlink ref="C4" r:id="rId5" display="明翔科技: 维修佬洗板水 350G/桶 x 2"/>
     <hyperlink ref="D4" r:id="rId6" display="订单"/>
     <hyperlink ref="E4" r:id="rId7" display="19.7"/>
-    <hyperlink ref="C5" r:id="rId8" display="拆焊台用电位器"/>
+    <hyperlink ref="C5" r:id="rId8" display="嘉灿电子:拆焊台用电位器"/>
     <hyperlink ref="D5" r:id="rId9" display="订单"/>
     <hyperlink ref="D6" r:id="rId10" display="差价"/>
     <hyperlink ref="E5" r:id="rId11" display="34"/>
     <hyperlink ref="E6" r:id="rId12" display="1.7"/>
     <hyperlink ref="F5:F6" r:id="rId13" display="35.7"/>
     <hyperlink ref="F4" r:id="rId14" display="19.7"/>
-    <hyperlink ref="C7" r:id="rId15" display="拆焊台用 EC11"/>
+    <hyperlink ref="C7" r:id="rId15" display="RISYM: 拆焊台用 EC11"/>
     <hyperlink ref="D7" r:id="rId16" display="订单"/>
     <hyperlink ref="E7" r:id="rId17" display="2.65"/>
-    <hyperlink ref="C9" r:id="rId18" display="模型组车模套件"/>
+    <hyperlink ref="C9" r:id="rId18" display="赛曙科技: 模型组车模套件"/>
     <hyperlink ref="D9" r:id="rId19" display="订单"/>
     <hyperlink ref="E9" r:id="rId20" display="3347"/>
     <hyperlink ref="F7" r:id="rId21" display="2.65"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,11 +355,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -470,13 +470,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -493,6 +486,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -507,82 +577,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -623,25 +623,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,25 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,115 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,15 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -914,26 +905,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,147 +941,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,7 +1632,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="I3" s="57">
         <f>SUM(H3:H9)</f>
-        <v>259.05</v>
+        <v>3606.05</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="39" t="s">
@@ -1744,7 +1744,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -1806,7 +1806,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="44"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -1859,7 +1859,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -1874,7 +1874,7 @@
       <c r="E8" s="48">
         <v>105</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="48">
         <v>105</v>
       </c>
       <c r="G8" s="49"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -1905,13 +1905,13 @@
       <c r="E9" s="48">
         <v>3347</v>
       </c>
-      <c r="F9" s="48">
-        <v>0</v>
+      <c r="F9" s="53">
+        <v>3377</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="50">
         <f>IF(E9&lt;F9,E9,F9)</f>
-        <v>0</v>
+        <v>3347</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="39"/>
@@ -2049,6 +2049,7 @@
     <hyperlink ref="D8" r:id="rId23" display="订单"/>
     <hyperlink ref="E8" r:id="rId24" display="105"/>
     <hyperlink ref="F8" r:id="rId25" display="105"/>
+    <hyperlink ref="F9" r:id="rId26" display="3377"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>编号</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>赛曙科技: 模型组车模套件</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>赛曙科技: I车模-摄像头和固定件</t>
   </si>
   <si>
     <t>序号</t>
@@ -1117,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,18 +1248,18 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,15 +1275,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,11 +1296,17 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1632,7 +1647,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1678,7 +1693,7 @@
       <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="37" t="s">
@@ -1702,8 +1717,8 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="47"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:13">
@@ -1731,12 +1746,12 @@
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>96</v>
       </c>
-      <c r="I3" s="57">
-        <f>SUM(H3:H9)</f>
+      <c r="I3" s="53">
+        <f>SUM(H3:H10)</f>
         <v>3606.05</v>
       </c>
       <c r="J3" s="39"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="58" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="39"/>
@@ -1767,9 +1782,9 @@
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>19.7</v>
       </c>
-      <c r="I4" s="58"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
     </row>
@@ -1778,10 +1793,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -1794,13 +1809,13 @@
         <v>35.7</v>
       </c>
       <c r="G5" s="49"/>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <f>IF(SUM(E5:E6)&lt;F5,SUM(E5:E6),F5)</f>
         <v>35.7</v>
       </c>
-      <c r="I5" s="58"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
     </row>
@@ -1809,8 +1824,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
         <v>20</v>
       </c>
@@ -1819,10 +1834,10 @@
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
     </row>
@@ -1851,9 +1866,9 @@
         <f>IF(E7&lt;F7,E7,F7)</f>
         <v>2.65</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
@@ -1882,9 +1897,9 @@
         <f>IF(E8&lt;F8,E8,F8)</f>
         <v>105</v>
       </c>
-      <c r="I8" s="58"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
     </row>
@@ -1905,7 +1920,7 @@
       <c r="E9" s="48">
         <v>3347</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <v>3377</v>
       </c>
       <c r="G9" s="49"/>
@@ -1913,15 +1928,37 @@
         <f>IF(E9&lt;F9,E9,F9)</f>
         <v>3347</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="52">
+        <v>180</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="36"/>
@@ -2013,12 +2050,12 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="K3:K10"/>
     <mergeCell ref="L3:L9"/>
     <mergeCell ref="M3:M9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A9 B3:D4 J4:L4 E4:H4 E3:L3">
+  <conditionalFormatting sqref="A3:A10 B3:D4 J4 L4 E4:H4 E3:L3">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -2050,6 +2087,9 @@
     <hyperlink ref="E8" r:id="rId24" display="105"/>
     <hyperlink ref="F8" r:id="rId25" display="105"/>
     <hyperlink ref="F9" r:id="rId26" display="3377"/>
+    <hyperlink ref="C10" r:id="rId27" display="赛曙科技: I车模-摄像头和固定件"/>
+    <hyperlink ref="D10" r:id="rId28" display="订单"/>
+    <hyperlink ref="E10" r:id="rId29" display="180"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2083,31 +2123,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -2115,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2133,10 +2173,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -2144,10 +2184,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2163,10 +2203,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2182,16 +2222,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2200,10 +2240,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2211,10 +2251,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2223,10 +2263,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2234,10 +2274,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2246,10 +2286,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2257,16 +2297,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2282,10 +2322,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2294,10 +2334,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2305,10 +2345,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2317,10 +2357,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2328,16 +2368,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2346,10 +2386,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2357,10 +2397,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2376,10 +2416,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2395,16 +2435,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2413,10 +2453,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2424,10 +2464,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2443,10 +2483,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2462,16 +2502,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2480,10 +2520,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2491,10 +2531,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2503,7 +2543,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2512,10 +2552,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2531,16 +2571,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2549,10 +2589,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2560,10 +2600,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2579,10 +2619,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2598,10 +2638,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2617,16 +2657,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2636,7 +2676,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2644,10 +2684,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2656,10 +2696,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2667,10 +2707,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2679,10 +2719,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2690,10 +2730,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2702,10 +2742,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2713,16 +2753,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2731,10 +2771,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2742,10 +2782,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2761,13 +2801,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2780,10 +2820,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2799,10 +2839,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>编号</t>
   </si>
@@ -47,13 +47,7 @@
     <t>总额</t>
   </si>
   <si>
-    <t>出入库</t>
-  </si>
-  <si>
     <t>收款人</t>
-  </si>
-  <si>
-    <t>支出单号</t>
   </si>
   <si>
     <t>状态</t>
@@ -1123,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,9 +1285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1642,12 +1633,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1661,14 +1652,12 @@
     <col min="7" max="7" width="7.375" style="33" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="8.98333333333333" style="33" customWidth="1"/>
-    <col min="11" max="11" width="7" style="34" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="33" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="34" customWidth="1"/>
-    <col min="14" max="28" width="9" style="34"/>
+    <col min="10" max="10" width="7" style="34" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="34" customWidth="1"/>
+    <col min="12" max="26" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1702,14 +1691,8 @@
       <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="2:12">
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="2:9">
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1718,19 +1701,17 @@
       <c r="G2" s="38"/>
       <c r="H2" s="47"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="15">
         <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>3</v>
@@ -1750,23 +1731,21 @@
         <f>SUM(H3:H10)</f>
         <v>3606.05</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="J3" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>3</v>
@@ -1783,21 +1762,19 @@
         <v>19.7</v>
       </c>
       <c r="I4" s="53"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="J4" s="58"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>3</v>
@@ -1814,12 +1791,10 @@
         <v>35.7</v>
       </c>
       <c r="I5" s="53"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="J5" s="58"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1827,7 +1802,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="48">
         <v>1.7</v>
@@ -1836,21 +1811,19 @@
       <c r="G6" s="49"/>
       <c r="H6" s="50"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="J6" s="58"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>3</v>
@@ -1867,21 +1840,19 @@
         <v>2.65</v>
       </c>
       <c r="I7" s="53"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="J7" s="58"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>3</v>
@@ -1898,21 +1869,19 @@
         <v>105</v>
       </c>
       <c r="I8" s="53"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="J8" s="58"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>3</v>
@@ -1929,21 +1898,19 @@
         <v>3347</v>
       </c>
       <c r="I9" s="53"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="58"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="15">
         <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>3</v>
@@ -1955,10 +1922,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="54"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="44"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="60"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="36"/>
@@ -2045,17 +2010,16 @@
       <c r="F31" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I3:I10"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="M3:M9"/>
+    <mergeCell ref="J3:J10"/>
+    <mergeCell ref="K3:K9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A10 B3:D4 J4 L4 E4:H4 E3:L3">
+  <conditionalFormatting sqref="A3:A10 B3:D4 E3:J3 E4:H4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -2123,31 +2087,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -2155,16 +2119,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2173,10 +2137,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -2184,10 +2148,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2203,10 +2167,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2222,16 +2186,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2240,10 +2204,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2251,10 +2215,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2263,10 +2227,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2274,10 +2238,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2286,10 +2250,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2297,16 +2261,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2322,10 +2286,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2334,10 +2298,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2345,10 +2309,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2357,10 +2321,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2368,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2386,10 +2350,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2397,10 +2361,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2416,10 +2380,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2435,16 +2399,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2453,10 +2417,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2464,10 +2428,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2483,10 +2447,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2502,16 +2466,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2520,10 +2484,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2531,10 +2495,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2543,7 +2507,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2552,10 +2516,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2571,16 +2535,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2589,10 +2553,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2600,10 +2564,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2619,10 +2583,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2638,10 +2602,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2657,16 +2621,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2676,7 +2640,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2684,10 +2648,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2696,10 +2660,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2707,10 +2671,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2719,10 +2683,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2730,10 +2694,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2742,10 +2706,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2753,16 +2717,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2771,10 +2735,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2782,10 +2746,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2801,13 +2765,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2820,10 +2784,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2839,10 +2803,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t>编号</t>
   </si>
@@ -92,7 +92,7 @@
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>赛曙科技: 模型组车模套件</t>
+    <t>赛曙科技: I车模套件</t>
   </si>
   <si>
     <t>2024-08-16</t>
@@ -1638,7 +1638,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1892,7 +1892,9 @@
       <c r="F9" s="51">
         <v>3377</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="48" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="50">
         <f>IF(E9&lt;F9,E9,F9)</f>
         <v>3347</v>
@@ -2042,7 +2044,7 @@
     <hyperlink ref="C7" r:id="rId15" display="RISYM: 拆焊台用 EC11"/>
     <hyperlink ref="D7" r:id="rId16" display="订单"/>
     <hyperlink ref="E7" r:id="rId17" display="2.65"/>
-    <hyperlink ref="C9" r:id="rId18" display="赛曙科技: 模型组车模套件"/>
+    <hyperlink ref="C9" r:id="rId18" display="赛曙科技: I车模套件"/>
     <hyperlink ref="D9" r:id="rId19" display="订单"/>
     <hyperlink ref="E9" r:id="rId20" display="3347"/>
     <hyperlink ref="F7" r:id="rId21" display="2.65"/>
@@ -2054,6 +2056,7 @@
     <hyperlink ref="C10" r:id="rId27" display="赛曙科技: I车模-摄像头和固定件"/>
     <hyperlink ref="D10" r:id="rId28" display="订单"/>
     <hyperlink ref="E10" r:id="rId29" display="180"/>
+    <hyperlink ref="G9" r:id="rId30" display="验真"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -355,11 +355,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -456,20 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -479,14 +465,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,32 +562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,50 +577,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -617,18 +617,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,157 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,32 +873,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +884,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,21 +908,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,157 +937,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,12 +1248,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,22 +1263,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1638,7 +1623,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1679,10 +1664,10 @@
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="37" t="s">
@@ -1699,12 +1684,12 @@
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1716,22 +1701,22 @@
       <c r="D3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>96</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="46">
         <v>96</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>96</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="51">
         <f>SUM(H3:H10)</f>
-        <v>3606.05</v>
-      </c>
-      <c r="J3" s="57" t="s">
+        <v>3786.05</v>
+      </c>
+      <c r="J3" s="52" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="39"/>
@@ -1750,19 +1735,19 @@
       <c r="D4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>19.7</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="46">
         <v>19.7</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50">
+      <c r="G4" s="47"/>
+      <c r="H4" s="48">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>19.7</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="58"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11">
@@ -1779,19 +1764,19 @@
       <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>34</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="46">
         <v>35.7</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50">
+      <c r="G5" s="47"/>
+      <c r="H5" s="48">
         <f>IF(SUM(E5:E6)&lt;F5,SUM(E5:E6),F5)</f>
         <v>35.7</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="58"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11">
@@ -1804,14 +1789,14 @@
       <c r="D6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>1.7</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11">
@@ -1828,19 +1813,19 @@
       <c r="D7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>2.65</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="46">
         <v>2.65</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50">
+      <c r="G7" s="47"/>
+      <c r="H7" s="48">
         <f>IF(E7&lt;F7,E7,F7)</f>
         <v>2.65</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="58"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11">
@@ -1857,19 +1842,19 @@
       <c r="D8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>105</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <v>105</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50">
+      <c r="G8" s="47"/>
+      <c r="H8" s="48">
         <f>IF(E8&lt;F8,E8,F8)</f>
         <v>105</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="58"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11">
@@ -1886,46 +1871,51 @@
       <c r="D9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>3347</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="46">
         <v>3377</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="48">
         <f>IF(E9&lt;F9,E9,F9)</f>
         <v>3347</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="58"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="46">
         <v>180</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="F10" s="46">
+        <v>180</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="48">
+        <f>IF(E10&lt;F10,E10,F10)</f>
+        <v>180</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="36"/>
@@ -2057,6 +2047,7 @@
     <hyperlink ref="D10" r:id="rId28" display="订单"/>
     <hyperlink ref="E10" r:id="rId29" display="180"/>
     <hyperlink ref="G9" r:id="rId30" display="验真"/>
+    <hyperlink ref="F10" r:id="rId31" display="180"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/实验室/汇总表.xlsx
+++ b/expense/实验室/汇总表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>编号</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>郝旭光</t>
+  </si>
+  <si>
+    <t>已收款</t>
   </si>
   <si>
     <t>2024-03-14</t>
@@ -356,10 +359,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -456,6 +459,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -464,24 +488,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,24 +534,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,30 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,28 +586,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -617,19 +620,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,157 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,41 +876,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +908,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,17 +947,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,94 +975,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,56 +1071,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,14 +1278,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1623,7 +1632,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,7 +1647,7 @@
     <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="36" customWidth="1"/>
     <col min="10" max="10" width="7" style="34" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="8.01666666666667" style="34" customWidth="1"/>
     <col min="12" max="26" width="9" style="34"/>
   </cols>
   <sheetData>
@@ -1719,7 +1728,9 @@
       <c r="J3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="53" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="15">
@@ -1727,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>3</v>
@@ -1747,8 +1758,8 @@
         <v>19.7</v>
       </c>
       <c r="I4" s="51"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="39"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="15">
@@ -1756,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>3</v>
@@ -1776,8 +1787,8 @@
         <v>35.7</v>
       </c>
       <c r="I5" s="51"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="15">
@@ -1787,7 +1798,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="46">
         <v>1.7</v>
@@ -1796,8 +1807,8 @@
       <c r="G6" s="47"/>
       <c r="H6" s="48"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="15">
@@ -1805,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>3</v>
@@ -1825,8 +1836,8 @@
         <v>2.65</v>
       </c>
       <c r="I7" s="51"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="15">
@@ -1834,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>3</v>
@@ -1854,8 +1865,8 @@
         <v>105</v>
       </c>
       <c r="I8" s="51"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15">
@@ -1863,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>3</v>
@@ -1885,8 +1896,8 @@
         <v>3347</v>
       </c>
       <c r="I9" s="51"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="15">
@@ -1894,10 +1905,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>3</v>
@@ -1914,8 +1925,8 @@
         <v>180</v>
       </c>
       <c r="I10" s="51"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="36"/>
@@ -2009,7 +2020,7 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J10"/>
-    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="K3:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A10 B3:D4 E3:J3 E4:H4">
     <cfRule type="expression" dxfId="0" priority="8">
@@ -2081,31 +2092,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -2113,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -2131,10 +2142,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -2142,10 +2153,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -2161,10 +2172,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2180,16 +2191,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2198,10 +2209,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2209,10 +2220,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2221,10 +2232,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2232,10 +2243,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2244,10 +2255,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2255,16 +2266,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2280,10 +2291,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2292,10 +2303,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2303,10 +2314,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2315,10 +2326,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2326,16 +2337,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2344,10 +2355,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2355,10 +2366,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2374,10 +2385,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2393,16 +2404,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2411,10 +2422,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2422,10 +2433,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2441,10 +2452,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2460,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2478,10 +2489,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2489,10 +2500,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2501,7 +2512,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2510,10 +2521,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2529,16 +2540,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2547,10 +2558,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2558,10 +2569,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2577,10 +2588,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2596,10 +2607,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2615,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2634,7 +2645,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2642,10 +2653,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2654,10 +2665,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2665,10 +2676,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2677,10 +2688,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2688,10 +2699,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2700,10 +2711,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2711,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2729,10 +2740,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2740,10 +2751,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2759,13 +2770,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2778,10 +2789,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2797,10 +2808,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
